--- a/data/trans_bre/P21D_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P21D_1_R-Estudios-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9589736036090877</v>
+        <v>0.9590321395584547</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4895195423405954</v>
+        <v>0.3838393017337824</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3033931687659581</v>
+        <v>0.3144371606203865</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
